--- a/robot/test.xlsx
+++ b/robot/test.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="600" yWindow="570" windowWidth="27735" windowHeight="11700"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-  </sheets>
-  <calcPr calcId="124519"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <s:sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <s:sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -160,6 +160,9 @@
     <t>GET</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>用例2</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
     <t>id=538&amp;type=financing</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>用例6</t>
   </si>
   <si>
@@ -208,36 +214,38 @@
     <t>id=542&amp;type=financing</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
+    <t>[timeout('timed out',)]</t>
+  </si>
+  <si>
+    <t>[TypeError("'NoneType' object is not iterable",)]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -253,22 +261,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -556,25 +564,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.375" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="2.5"/>
+    <col customWidth="1" max="2" min="2" style="1" width="6"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="1" width="46"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="40.5"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="23.875"/>
+    <col customWidth="1" max="7" min="7" style="1" width="21.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="1" s="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,8 +617,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2">
+    <row customHeight="1" ht="15" r="2" s="1" spans="1:10">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -622,7 +633,7 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>200</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -632,15 +643,15 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3">
+    <row customHeight="1" ht="15" r="3" s="1" spans="1:10">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -649,9 +660,9 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="F3" t="n">
         <v>200</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -661,15 +672,15 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4">
+    <row customHeight="1" ht="15" r="4" s="1" spans="1:10">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -678,9 +689,9 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="F4" t="n">
         <v>200</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -690,15 +701,15 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5">
+    <row customHeight="1" ht="15" r="5" s="1" spans="1:10">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -707,9 +718,9 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="F5" t="n">
         <v>200</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -719,15 +730,15 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6">
+    <row customHeight="1" ht="15" r="6" s="1" spans="1:10">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -736,9 +747,9 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
+        <v>24</v>
+      </c>
+      <c r="F6" t="n">
         <v>200</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -748,15 +759,18 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7">
+    <row customHeight="1" ht="15" r="7" s="1" spans="1:10">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -765,9 +779,9 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7">
+        <v>27</v>
+      </c>
+      <c r="F7" t="n">
         <v>200</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -777,15 +791,15 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8">
+    <row customHeight="1" ht="15" r="8" s="1" spans="1:10">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -794,9 +808,9 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8">
+        <v>29</v>
+      </c>
+      <c r="F8" t="n">
         <v>200</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -806,15 +820,18 @@
         <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9">
+    <row customHeight="1" ht="15" r="9" s="1" spans="1:10">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -823,9 +840,9 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9">
+        <v>31</v>
+      </c>
+      <c r="F9" t="n">
         <v>200</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -835,15 +852,15 @@
         <v>15</v>
       </c>
       <c r="I9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="1" spans="1:10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -852,9 +869,9 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10">
+        <v>33</v>
+      </c>
+      <c r="F10" t="n">
         <v>200</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -864,40 +881,49 @@
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="200" orientation="portrait" paperSize="9" verticalDpi="200"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="200" orientation="portrait" paperSize="9" verticalDpi="200"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="200" orientation="portrait" paperSize="9" verticalDpi="200"/>
 </worksheet>
 </file>